--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barny\Documents\GitHub\Pooled_Testing_HIV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B41DF8-6963-41AA-A57F-60521CF004C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1596A80-0178-4C1C-A6F5-293779881286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1185" windowWidth="20235" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="195" windowWidth="20235" windowHeight="11955" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clean_data" sheetId="1" r:id="rId1"/>
     <sheet name="training_set" sheetId="2" r:id="rId2"/>
     <sheet name="test_set" sheetId="3" r:id="rId3"/>
+    <sheet name="Sim_data" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="408">
   <si>
     <t>Variable Name</t>
   </si>
@@ -1368,6 +1369,43 @@
 Output: clean_data
 Program: raw_data_clean.R</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data Dictionary for Simdata, SD=1.0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+This is the simulated dataset used for method evaluation. All data is simulated as independent observations to mimic the VL distribution found in Uganda
+Program: data_gen.R
+</t>
+    </r>
+  </si>
+  <si>
+    <t>VL</t>
+  </si>
+  <si>
+    <t>log.VL</t>
+  </si>
+  <si>
+    <t>model.VL</t>
+  </si>
+  <si>
+    <t>adhere</t>
+  </si>
+  <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>VLcat</t>
   </si>
 </sst>
 </file>
@@ -1960,7 +1998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2441,7 +2479,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
@@ -2462,7 +2500,7 @@
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
@@ -2481,7 +2519,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>15</v>
       </c>
@@ -2540,7 +2578,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>18</v>
       </c>
@@ -2599,7 +2637,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>21</v>
       </c>
@@ -2658,7 +2696,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>51</v>
       </c>
@@ -2717,7 +2755,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>52</v>
       </c>
@@ -2776,7 +2814,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>53</v>
       </c>
@@ -2835,7 +2873,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>54</v>
       </c>
@@ -2894,7 +2932,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>55</v>
       </c>
@@ -2953,7 +2991,7 @@
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>56</v>
       </c>
@@ -3012,7 +3050,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>57</v>
       </c>
@@ -3071,7 +3109,7 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>58</v>
       </c>
@@ -3130,7 +3168,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>59</v>
       </c>
@@ -3189,7 +3227,7 @@
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>60</v>
       </c>
@@ -6450,7 +6488,2278 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5FA663-9236-4073-8D53-77326AF9AA97}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="84.7109375" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="14">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="14">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="14">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="14">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="14">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="14">
+        <v>4</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="14">
+        <v>0</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="14">
+        <v>0</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="14">
+        <v>0</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="14">
+        <v>0</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="14">
+        <v>0</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="14">
+        <v>0</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="14">
+        <v>0</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="14">
+        <v>0</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="14">
+        <v>0</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="14">
+        <v>0</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" s="14">
+        <v>0</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="14">
+        <v>0</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" s="14">
+        <v>0</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="14">
+        <v>6</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="14">
+        <v>6</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="14">
+        <v>731</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="14">
+        <v>731</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="14">
+        <v>0</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="14">
+        <v>0</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" s="14">
+        <v>0</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" s="14">
+        <v>0</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="14">
+        <v>0</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" s="14">
+        <v>0</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D79" s="14">
+        <v>0</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" s="14">
+        <v>44</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D81" s="14">
+        <v>0</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D82" s="14">
+        <v>0</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="10"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="10"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="10"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="10"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="10"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="10"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="10"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="10"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="10"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="10"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="10"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="10"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="10"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="10"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="9"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="9"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="9"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="9"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821BEF25-936D-49B3-974A-DF3226A02EA4}">
+  <dimension ref="A1:G163"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -6467,7 +8776,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -6618,1367 +8927,609 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>233</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>233</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="14">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>238</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" s="14">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>239</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>233</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>233</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>233</v>
-      </c>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>233</v>
-      </c>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" s="14">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>233</v>
-      </c>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="14">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="14">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>274</v>
-      </c>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" s="14">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>275</v>
-      </c>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D29" s="14">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D30" s="14">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>277</v>
-      </c>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" s="14">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="14">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>279</v>
-      </c>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D33" s="14">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>280</v>
-      </c>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" s="14">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>281</v>
-      </c>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D35" s="14">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>282</v>
-      </c>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" s="14">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>283</v>
-      </c>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D37" s="14">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>284</v>
-      </c>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="14">
-        <v>0</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>285</v>
-      </c>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" s="14">
-        <v>0</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>286</v>
-      </c>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D40" s="14">
-        <v>0</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>287</v>
-      </c>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D41" s="14">
-        <v>0</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>288</v>
-      </c>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="14">
-        <v>0</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>289</v>
-      </c>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D43" s="14">
-        <v>0</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>290</v>
-      </c>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="14">
-        <v>0</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="14">
-        <v>0</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>301</v>
-      </c>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D46" s="14">
-        <v>0</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>302</v>
-      </c>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D47" s="14">
-        <v>0</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>303</v>
-      </c>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D48" s="14">
-        <v>0</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>304</v>
-      </c>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D49" s="14">
-        <v>0</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>305</v>
-      </c>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="14">
-        <v>4</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="8"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D51" s="14">
-        <v>0</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>332</v>
-      </c>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D52" s="14">
-        <v>0</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>333</v>
-      </c>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D53" s="14">
-        <v>0</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>334</v>
-      </c>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="14">
-        <v>0</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>335</v>
-      </c>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55" s="14">
-        <v>0</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>336</v>
-      </c>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D56" s="14">
-        <v>0</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>337</v>
-      </c>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D57" s="14">
-        <v>0</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>338</v>
-      </c>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="14">
-        <v>0</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>339</v>
-      </c>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D59" s="14">
-        <v>0</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>340</v>
-      </c>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D60" s="14">
-        <v>0</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>341</v>
-      </c>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D61" s="14">
-        <v>0</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>342</v>
-      </c>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D62" s="14">
-        <v>0</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>343</v>
-      </c>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D63" s="14">
-        <v>0</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>344</v>
-      </c>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" s="14">
-        <v>0</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>348</v>
-      </c>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D65" s="14">
-        <v>0</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>357</v>
-      </c>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D66" s="14">
-        <v>0</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>358</v>
-      </c>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D67" s="14">
-        <v>0</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>359</v>
-      </c>
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D68" s="14">
-        <v>0</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>360</v>
-      </c>
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="14">
-        <v>6</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="8"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D70" s="14">
-        <v>6</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="8"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D71" s="14">
-        <v>731</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="8"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D72" s="14">
-        <v>731</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="8"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" s="14">
-        <v>0</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>369</v>
-      </c>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74" s="14">
-        <v>0</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>368</v>
-      </c>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D75" s="14">
-        <v>0</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>372</v>
-      </c>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D76" s="14">
-        <v>0</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>375</v>
-      </c>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D77" s="14">
-        <v>0</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>380</v>
-      </c>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D78" s="14">
-        <v>0</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>381</v>
-      </c>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="D79" s="14">
-        <v>0</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>385</v>
-      </c>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D80" s="14">
-        <v>44</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>388</v>
-      </c>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="D81" s="14">
-        <v>0</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>396</v>
-      </c>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="D82" s="14">
-        <v>0</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>397</v>
-      </c>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
